--- a/gams/res_sum_Q_inrO_RA.xlsx
+++ b/gams/res_sum_Q_inrO_RA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\CloudDrive\Uni\WS24\Research Project\gams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435F5F0D-6F20-4CF9-9D19-4F9FAD6D9733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E4B320-9751-4D87-9440-2678E949F9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="795" windowWidth="16440" windowHeight="28440" xr2:uid="{83752B7A-7D40-422F-B04A-AF68085D8784}"/>
+    <workbookView xWindow="-9690" yWindow="990" windowWidth="7500" windowHeight="6000" xr2:uid="{83752B7A-7D40-422F-B04A-AF68085D8784}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -410,7 +410,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1">
-        <v>63.412499999999838</v>
+        <v>65.346197253491582</v>
       </c>
     </row>
   </sheetData>

--- a/gams/res_sum_Q_inrO_RA.xlsx
+++ b/gams/res_sum_Q_inrO_RA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\CloudDrive\Uni\WS24\Research Project\gams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E4B320-9751-4D87-9440-2678E949F9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469D4DDA-D212-4563-9C3B-4A02838E7137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9690" yWindow="990" windowWidth="7500" windowHeight="6000" xr2:uid="{83752B7A-7D40-422F-B04A-AF68085D8784}"/>
+    <workbookView xWindow="-16320" yWindow="795" windowWidth="16440" windowHeight="28440" xr2:uid="{83752B7A-7D40-422F-B04A-AF68085D8784}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -410,7 +410,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1">
-        <v>65.346197253491582</v>
+        <v>5.5061999999999971</v>
       </c>
     </row>
   </sheetData>

--- a/gams/res_sum_Q_inrO_RA.xlsx
+++ b/gams/res_sum_Q_inrO_RA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\CloudDrive\Uni\WS24\Research Project\gams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469D4DDA-D212-4563-9C3B-4A02838E7137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63533DE-DAD9-425F-85EC-7493C9582F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="795" windowWidth="16440" windowHeight="28440" xr2:uid="{83752B7A-7D40-422F-B04A-AF68085D8784}"/>
+    <workbookView xWindow="-16320" yWindow="795" windowWidth="16440" windowHeight="28440" xr2:uid="{68E10A7D-819B-4E5F-8BAB-0535001AF5D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403CC593-795C-40B7-B27A-08CBD53171B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81FEBD1E-3923-472D-9EBB-3F720FB6E3D9}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -410,7 +410,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1">
-        <v>5.5061999999999971</v>
+        <v>46.008047442181933</v>
       </c>
     </row>
   </sheetData>
